--- a/ari.xlsx
+++ b/ari.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suwandiaminsangaji/Arima/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6A4722-0064-864F-912A-45FE7874C398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5154632C-6374-E145-9AC3-DB6E91B11873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -308,8 +308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1096"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B761" sqref="B761"/>
+    <sheetView tabSelected="1" topLeftCell="A727" zoomScale="96" workbookViewId="0">
+      <selection activeCell="C734" sqref="C734"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6159,244 +6159,124 @@
       </c>
     </row>
     <row r="731" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A731" s="4">
-        <v>43831</v>
-      </c>
-      <c r="B731" s="1">
-        <v>4243</v>
-      </c>
+      <c r="A731" s="4"/>
+      <c r="B731" s="1"/>
     </row>
     <row r="732" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A732" s="4">
-        <v>43832</v>
-      </c>
-      <c r="B732" s="3">
-        <v>5449</v>
-      </c>
+      <c r="A732" s="4"/>
+      <c r="B732" s="3"/>
     </row>
     <row r="733" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A733" s="4">
-        <v>43833</v>
-      </c>
-      <c r="B733" s="3">
-        <v>3636</v>
-      </c>
+      <c r="A733" s="4"/>
+      <c r="B733" s="3"/>
     </row>
     <row r="734" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A734" s="4">
-        <v>43834</v>
-      </c>
-      <c r="B734" s="3">
-        <v>4829</v>
-      </c>
+      <c r="A734" s="4"/>
+      <c r="B734" s="3"/>
     </row>
     <row r="735" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A735" s="4">
-        <v>43835</v>
-      </c>
-      <c r="B735" s="3">
-        <v>9713</v>
-      </c>
+      <c r="A735" s="4"/>
+      <c r="B735" s="3"/>
     </row>
     <row r="736" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A736" s="4">
-        <v>43836</v>
-      </c>
-      <c r="B736" s="3">
-        <v>8706</v>
-      </c>
+      <c r="A736" s="4"/>
+      <c r="B736" s="3"/>
     </row>
     <row r="737" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A737" s="4">
-        <v>43837</v>
-      </c>
-      <c r="B737" s="3">
-        <v>9051</v>
-      </c>
+      <c r="A737" s="4"/>
+      <c r="B737" s="3"/>
     </row>
     <row r="738" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A738" s="4">
-        <v>43838</v>
-      </c>
-      <c r="B738" s="3">
-        <v>7585</v>
-      </c>
+      <c r="A738" s="4"/>
+      <c r="B738" s="3"/>
     </row>
     <row r="739" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A739" s="4">
-        <v>43839</v>
-      </c>
-      <c r="B739" s="3">
-        <v>5750</v>
-      </c>
+      <c r="A739" s="4"/>
+      <c r="B739" s="3"/>
     </row>
     <row r="740" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A740" s="4">
-        <v>43840</v>
-      </c>
-      <c r="B740" s="3">
-        <v>8619</v>
-      </c>
+      <c r="A740" s="4"/>
+      <c r="B740" s="3"/>
     </row>
     <row r="741" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A741" s="4">
-        <v>43841</v>
-      </c>
-      <c r="B741" s="3">
-        <v>8760</v>
-      </c>
+      <c r="A741" s="4"/>
+      <c r="B741" s="3"/>
     </row>
     <row r="742" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A742" s="4">
-        <v>43842</v>
-      </c>
-      <c r="B742" s="3">
-        <v>11217</v>
-      </c>
+      <c r="A742" s="4"/>
+      <c r="B742" s="3"/>
     </row>
     <row r="743" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A743" s="4">
-        <v>43843</v>
-      </c>
-      <c r="B743" s="3">
-        <v>10446</v>
-      </c>
+      <c r="A743" s="4"/>
+      <c r="B743" s="3"/>
     </row>
     <row r="744" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A744" s="4">
-        <v>43844</v>
-      </c>
-      <c r="B744" s="3">
-        <v>10876</v>
-      </c>
+      <c r="A744" s="4"/>
+      <c r="B744" s="3"/>
     </row>
     <row r="745" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A745" s="4">
-        <v>43845</v>
-      </c>
-      <c r="B745" s="3">
-        <v>9432</v>
-      </c>
+      <c r="A745" s="4"/>
+      <c r="B745" s="3"/>
     </row>
     <row r="746" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A746" s="4">
-        <v>43846</v>
-      </c>
-      <c r="B746" s="3">
-        <v>9357</v>
-      </c>
+      <c r="A746" s="4"/>
+      <c r="B746" s="3"/>
     </row>
     <row r="747" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A747" s="4">
-        <v>43847</v>
-      </c>
-      <c r="B747" s="3">
-        <v>7765</v>
-      </c>
+      <c r="A747" s="4"/>
+      <c r="B747" s="3"/>
     </row>
     <row r="748" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A748" s="4">
-        <v>43848</v>
-      </c>
-      <c r="B748" s="3">
-        <v>10188</v>
-      </c>
+      <c r="A748" s="4"/>
+      <c r="B748" s="3"/>
     </row>
     <row r="749" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A749" s="4">
-        <v>43849</v>
-      </c>
-      <c r="B749" s="3">
-        <v>11839</v>
-      </c>
+      <c r="A749" s="4"/>
+      <c r="B749" s="3"/>
     </row>
     <row r="750" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A750" s="4">
-        <v>43850</v>
-      </c>
-      <c r="B750" s="3">
-        <v>9301</v>
-      </c>
+      <c r="A750" s="4"/>
+      <c r="B750" s="3"/>
     </row>
     <row r="751" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A751" s="4">
-        <v>43851</v>
-      </c>
-      <c r="B751" s="3">
-        <v>12998</v>
-      </c>
+      <c r="A751" s="4"/>
+      <c r="B751" s="3"/>
     </row>
     <row r="752" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A752" s="4">
-        <v>43852</v>
-      </c>
-      <c r="B752" s="3">
-        <v>9386</v>
-      </c>
+      <c r="A752" s="4"/>
+      <c r="B752" s="3"/>
     </row>
     <row r="753" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A753" s="4">
-        <v>43853</v>
-      </c>
-      <c r="B753" s="3">
-        <v>6578</v>
-      </c>
+      <c r="A753" s="4"/>
+      <c r="B753" s="3"/>
     </row>
     <row r="754" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A754" s="4">
-        <v>43854</v>
-      </c>
-      <c r="B754" s="3">
-        <v>9306</v>
-      </c>
+      <c r="A754" s="4"/>
+      <c r="B754" s="3"/>
     </row>
     <row r="755" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A755" s="4">
-        <v>43855</v>
-      </c>
-      <c r="B755" s="3">
-        <v>9186</v>
-      </c>
+      <c r="A755" s="4"/>
+      <c r="B755" s="3"/>
     </row>
     <row r="756" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A756" s="4">
-        <v>43856</v>
-      </c>
-      <c r="B756" s="3">
-        <v>8312</v>
-      </c>
+      <c r="A756" s="4"/>
+      <c r="B756" s="3"/>
     </row>
     <row r="757" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A757" s="4">
-        <v>43857</v>
-      </c>
-      <c r="B757" s="3">
-        <v>8726</v>
-      </c>
+      <c r="A757" s="4"/>
+      <c r="B757" s="3"/>
     </row>
     <row r="758" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A758" s="4">
-        <v>43858</v>
-      </c>
-      <c r="B758" s="3">
-        <v>10785</v>
-      </c>
+      <c r="A758" s="4"/>
+      <c r="B758" s="3"/>
     </row>
     <row r="759" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A759" s="4">
-        <v>43859</v>
-      </c>
-      <c r="B759" s="3">
-        <v>8712</v>
-      </c>
+      <c r="A759" s="4"/>
+      <c r="B759" s="3"/>
     </row>
     <row r="760" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A760" s="4">
-        <v>43860</v>
-      </c>
-      <c r="B760" s="3">
-        <v>8511</v>
-      </c>
+      <c r="A760" s="4"/>
+      <c r="B760" s="3"/>
     </row>
     <row r="761" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B761" s="3"/>
